--- a/Tủ lạnh/Case.xlsx
+++ b/Tủ lạnh/Case.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Chatbot sửa chữa đồ điện lạnh\Tủ lạnh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Năm 4_ Kì 1\Các hệ thống dựa trên tri thức\Chatbot-sua-chua-do-dien-lanh\Tủ lạnh\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8B2ADA-55D1-4845-9787-8F92B233C068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case" sheetId="1" r:id="rId1"/>
@@ -86,18 +87,10 @@
     <t>Quạt gió của tủ lạnh không hoạt động</t>
   </si>
   <si>
-    <t xml:space="preserve">Để khắc phục tình trạng này, bạn hãy rút tủ ra khoảng 24 tiếng rồi cắm lại. Nếu quạt bị hư hỏng, bạn hãy thay quạt mới cho tủ lạnh. Bạn cũng nên vệ sinh tủ lạnh theo định kỳ, 4 - 5 tuần một lần, vừa nâng cao tuổi thọ vừa tránh tình trạng quạt tủ bị kẹt. Hoặc hãy tìm đến sự giúp đỡ của người có chuyên môn hoặc mang đến HyuK Refrigeration để kiểm tra
-</t>
-  </si>
-  <si>
     <t>TL02</t>
   </si>
   <si>
     <t>Block của tủ lạnh bị hỏng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bạn hãy chọn lọc lại lượng thực phẩm và bảo quản với số lượng vừa đủ. Nếu nguồn điện nơi bạn sống hay bị yếu và chập chờn, bạn hãy trang bị cho tủ một bình điện áp, để đảm bảo nguồn điện luôn ổn định. Đặt tủ lạnh ở nơi có vị trí thoáng mát, tránh nơi ẩm ướt, nhiệt độ cao và ánh sáng mặt trời cách phía sau khoảng 10 cm và hai bên tủ khoảng 2 cm với các đồ vật khác. Sau khi lấy thực phẩm hay cho thực phẩm vào tủ, bạn hãy kiểm tra thật kỹ xem tủ đã được đóng kín hay chưa.Thay ống dẫn gas mới. Hoặc hãy nhờ đến sự giúp đỡ của thợ sửa chữa chuyên nghiệp hoặc mang đến HyuK Refrigeration để kiểm tra
-</t>
   </si>
   <si>
     <t>TL03</t>
@@ -174,34 +167,16 @@
     <t>Cảm biến tủ lạnh bị hỏng</t>
   </si>
   <si>
-    <t xml:space="preserve">Trường hợp cảm biến tủ lạnh bị hỏng cách tốt nhất là bạn nên đến HyuK Refrigeration để kiểm tra cũng như thay mới
-Việc kiểm tra các linh kiện bên trong tủ lạnh cần được thực hiện bởi các kỹ thuật viên có chuyên môn. Không nên tự ý tháo rời tủ lạnh vì cần phải có dụng cụ chuyên dụng.
-Nên lựa chọn linh kiện chính hãng hoặc cùng loại với linh kiện cũ. Tránh hư hỏng các linh kiện khác
-</t>
-  </si>
-  <si>
     <t>TL08</t>
   </si>
   <si>
     <t>Bo mạch tủ lạnh bị hỏng</t>
   </si>
   <si>
-    <t xml:space="preserve">Việc board mạch trong tủ lạnh bị hư hỏng là một lỗi rất khó và tốn rất nhiều thời gian, đòi hỏi những người thợ kĩ thuật có chuyên môn và tay nghề cao mới có thể sửa chữa và khắc phục tình trạng hư board mạch. Khi tủ lạnh bị hư board mạch việc đầu tiên bạn nên ngắt nguồn điện trong tủ lạnh để tránh gây hỏng các bộ phận liên quan
-Bạn không nên tự ý tháo lắp hay sửa chữa bo mạch để tránh trình trạng tủ lạnh hư hỏng nặng hơn mà hãy liên hệ cho cơ sở điện lạnh uy tín nhất hoặc liên hệ ngay cho HyuK Refrigeration để kịp thời sửa chữa tủ lạnh
-Trong trường hợp tủ lạnh cần thay board mạch bạn cần lựa chọn board mạch chính hãng để thay thế tránh mua những sản phẩm không có nguồn gốc rõ ràng sẽ làm giảm công suất hoạt động của tủ lạnh và nghiêm trọng hơn có thể làm hư hỏng các bộ phận khác, đồng thời gây mất an toàn cho chính bạn và những người thân trong gia đình.
-</t>
-  </si>
-  <si>
     <t>TL09</t>
   </si>
   <si>
     <t>Dàn nóng tủ lạnh bị hỏng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuy nhiên, để sửa chữa được dàn nóng tủ lạnh, đòi hỏi bạn phải nắm rõ các quy trình cũng như có chuyên môn vững vàng. Nếu không trong quá trình sửa chữa có thể gặp sự cố không mong muốn và làm cả hệ thống của tủ lạnh không hoạt động được
-Nếu dàn nóng tủ lạnh nhà bạn mà bị hư nhưng không thể sửa chữa được, thì bạn nên nhanh chóng thay dàn nóng tủ lạnh mới
-o Bạn nên đến ngay trung tâm sửa chữa uy tín để thay dàn nóng cho tủ lạnh, vừa an toàn lại còn đạt được hiệu quả cao. Ngoài ra, để đảm bảo dàn nóng tủ lạnh được hoạt động tốt và ổn định nhất, bạn nên vệ sinh định kì từ 3 - 6 tháng/lần
-</t>
   </si>
   <si>
     <t>TL10</t>
@@ -404,13 +379,6 @@
     <t>OD02, OD03</t>
   </si>
   <si>
-    <t xml:space="preserve">Do công tắc cửa bị hư hỏng: Trong quá trình sử dụng, bạn đóng mở cửa không đúng cách và làm gãy công tắc hoặc do lỗi từ nhà sản xuất
-Bộ phận xả tuyết không hoạt động: Tủ lạnh không thể chuyển qua chương trình làm lạnh. Từ đó, khiến cho quạt gió không thể hoạt động.
-Có vật cản bên trong quạt khiến quạt không thể hoạt động: Do sử dụng trong thời gian dài không bảo dưỡng tủ lạnh, khiến đá bên trong đóng thành từng mảng nhỏ và tích tụ lâu ngày chạm tới mép quạt.
-Quạt bị hư hỏng: Khi tủ lạnh sử dụng lâu ngày, những bộ phận của tủ dần hư hỏng, trong đó quạt bị hư hỏng cũng là chuyện thường gặp.
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bảo quản quá nhiều thực phẩm trong tủ lạnh: Nếu cho quá nhiều thực phẩm vào tủ không chỉ bảo quản thực phẩm không tươi ngon, mà còn ảnh hưởng đến độ bền của thiết bị, vì tủ lạnh phải hoạt động liên tục để đáp ứng nhu cầu làm lạnh lượng thực phẩm bạn cho vào. 
 Đóng mở tủ liên tục: Người dùng hãy đóng mở cửa tủ liên tục, khiến Block phải làm việc hết năng suất và dẫn đến hư hỏng.
 Nguồn điện không ổn định: Nếu nguồn điện vận hành cho tủ lạnh không ổn định, thì dễ làm cho block dẫn đến hiện tượng chập cháy, chập chờn và ngắt nguồn điện không đúng quy định, làm cho Block bị hỏng.
@@ -420,57 +388,99 @@
 Do bị đứt gãy các ống gas hay dây cáp tròn quá trình di chuyển thay đổi vị trí: Nếu khí gas trong tủ bị hao hụt, thì có thể làm cho quá trình trao đổi nhiệt bị ảnh hưởng dẫn tới cháy block. </t>
   </si>
   <si>
-    <t>Gioăng cao su ở cửa tủ lạnh bị hở hoặc rách, khiến luồng khí lạnh bị thất thoát ra ngoài và tủ phải hoạt động hết công suất để bù lại lượng nhiệt đã mất
-Đặt tủ lạnh ở gần các thiết bị toả nhiệt như: lò sưởi, bếp,… hay vị trí có ánh sáng mặt trời chiếu trực tiếp
-Để tủ lạnh quá sát tường khiến tủ lạnh không có khoảng trống để toả nhiệt</t>
+    <t>Một trong những nguyên nhân khiến tủ lạnh rung, kêu to bất thường xuất phát từ những tấm nam châm được trang trí trên tủ lạnh, đồ vật đặt trên nóc tủ hoặc vỏ tủ lạnh bị lỏng, tạo ra những âm thanh trong quá trình hoạt động.
+Tủ lạnh có dung tích càng lớn thì công suất hoạt động càng mạnh. Do đó, trong quá trình sử dụng bạn sẽ nghe thấy những tiếng kêu lớn.
+Các dòng tủ lạnh không đóng tuyết thường phát ra tiếng kêu to hơn khi đang vận hành. Vì khi tủ hoạt động một thời gian dài, tuyết sẽ bị đóng trên dàn, rơ-le  phải xả băng làm phát ra tiếng ồn lạch cạch.</t>
+  </si>
+  <si>
+    <t>Do thanh lưỡng kim gặp vấn đề hỏng hóc hoặc do quá trình tiếp xúc của thanh lưỡng kim không tốt làm cho thanh công lớn, mở tiếp điểm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do công tắc cửa bị hư hỏng: Trong quá trình sử dụng, bạn đóng mở cửa không đúng cách và làm gãy công tắc hoặc do lỗi từ nhà sản xuất.
+Bộ phận xả tuyết không hoạt động: Tủ lạnh không thể chuyển qua chương trình làm lạnh. Từ đó, khiến cho quạt gió không thể hoạt động.
+Có vật cản bên trong quạt khiến quạt không thể hoạt động: Do sử dụng trong thời gian dài không bảo dưỡng tủ lạnh, khiến đá bên trong đóng thành từng mảng nhỏ và tích tụ lâu ngày chạm tới mép quạt.
+Quạt bị hư hỏng: Khi tủ lạnh sử dụng lâu ngày, những bộ phận của tủ dần hư hỏng, trong đó quạt bị hư hỏng cũng là chuyện thường gặp.
+</t>
+  </si>
+  <si>
+    <t>Gioăng cao su ở cửa tủ lạnh bị hở hoặc rách, khiến luồng khí lạnh bị thất thoát ra ngoài và tủ phải hoạt động hết công suất để bù lại lượng nhiệt đã mất.
+Đặt tủ lạnh ở gần các thiết bị toả nhiệt như: lò sưởi, bếp,… hay vị trí có ánh sáng mặt trời chiếu trực tiếp.
+Để tủ lạnh quá sát tường khiến tủ lạnh không có khoảng trống để toả nhiệt.</t>
   </si>
   <si>
     <t>Thói quen sử dụng tủ lạnh không tốt: Mở cửa tủ lạnh quá lâu hoặc mở quá thường xuyên, cửa ngăn đá bị hở, bảo quản thực phẩm còn nóng trong tủ lạnh,...
-Không vệ sinh tủ lạnh thường xuyên. Khiến cho tủ lạnh có mùi, bánh răng bị bào mòn, bị kẹt do bụi bẩn hoặc khô mỡ do lâu ngày không vệ sinh khiến quá trình truyền nhiệt giảm mạnh. Do đó, tủ lạnh dễ bị đọng nước và đóng tuyết
+Không vệ sinh tủ lạnh thường xuyên. Khiến cho tủ lạnh có mùi, bánh răng bị bào mòn, bị kẹt do bụi bẩn hoặc khô mỡ do lâu ngày không vệ sinh khiến quá trình truyền nhiệt giảm mạnh. Do đó, tủ lạnh dễ bị đọng nước và đóng tuyết.
 Rơ-le (Timer) không đóng sang tiếp điểm xả đá: Nếu rơ-le không đóng sang tiếp điểm, chế độ xả đá sẽ bị ngắt, khiến cho quá trình xả đá bị gián đoạn
 Cầu chì nhiệt bị đứt: Nếu cầu chì nhiệt bị đứt, bộ phận xả đá sẽ ngưng hoạt động, dẫn đến việc tủ lạnh đóng tuyết.
 Điện trở gia nhiệt bị đứt: Nếu điện trở gia nhiệt bị đứt, lượng điện năng sẽ khó có thể kiểm soát, dẫn đến việc tủ lạnh vận hành không ổn định, dễ bị hỏng hóc.</t>
   </si>
   <si>
-    <t>Một trong những nguyên nhân khiến tủ lạnh rung, kêu to bất thường xuất phát từ những tấm nam châm được trang trí trên tủ lạnh, đồ vật đặt trên nóc tủ hoặc vỏ tủ lạnh bị lỏng, tạo ra những âm thanh trong quá trình hoạt động.
-Tủ lạnh có dung tích càng lớn thì công suất hoạt động càng mạnh. Do đó, trong quá trình sử dụng bạn sẽ nghe thấy những tiếng kêu lớn.
-Các dòng tủ lạnh không đóng tuyết thường phát ra tiếng kêu to hơn khi đang vận hành. Vì khi tủ hoạt động một thời gian dài, tuyết sẽ bị đóng trên dàn, rơ-le  phải xả băng làm phát ra tiếng ồn lạch cạch.</t>
-  </si>
-  <si>
-    <t>Do thanh lưỡng kim gặp vấn đề hỏng hóc hoặc do quá trình tiếp xúc của thanh lưỡng kim không tốt làm cho thanh công lớn, mở tiếp điểm.</t>
-  </si>
-  <si>
-    <t>Sau một thời gian sử dụng, tủ lạnh thường hay bị hư hỏng cảm biến nhiệt độ
-Sử dụng tủ lạnh không đúng cách
-Không vệ sinh tủ lạnh định kỳ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sử dụng tủ lạnh không đúng cách Không vệ sinh tủ lạnh theo định kỳ
-Đặt tủ lạnh không đúng vị trí (nơi ẩm ướt hoặc có ánh năng trực tiếp từ mặt trời)
+    <t>Sau một thời gian sử dụng, tủ lạnh thường hay bị hư hỏng cảm biến nhiệt độ.
+Sử dụng tủ lạnh không đúng cách.
+Không vệ sinh tủ lạnh định kỳ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sử dụng tủ lạnh không đúng cách Không vệ sinh tủ lạnh theo định kỳ.
+Đặt tủ lạnh không đúng vị trí (nơi ẩm ướt hoặc có ánh năng trực tiếp từ mặt trời).
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Dàn nóng của tủ lạnh có quá nhiều bụi bẩn bám vào hoặc quạt của dàn nóng bị hỏng
-Mạch điện của hệ thống làm lạnh không đóng lại được hay rơ le nhiệt độ gặp sự cố
-Lốc của tủ bị hỏng, tủ lạnh bị thiếu hoặc hết ga
+    <t xml:space="preserve">Dàn nóng của tủ lạnh có quá nhiều bụi bẩn bám vào hoặc quạt của dàn nóng bị hỏng.
+Mạch điện của hệ thống làm lạnh không đóng lại được hay rơ le nhiệt độ gặp sự cố.
+Lốc của tủ bị hỏng, tủ lạnh bị thiếu hoặc hết ga.
 Rơ le nhiệt không cung cấp đủ điện
 </t>
   </si>
   <si>
-    <t>Đường ống hoặc các mối nối bị hở, thủng, tủ lạnh bị va đập gây xì ga
-Tủ lạnh bị va đập mạnh: Trong quá trình di chuyển, những va đập mạnh cũng khiến cho tủ lạnh bị xì ga
+    <t>Đường ống hoặc các mối nối bị hở, thủng, tủ lạnh bị va đập gây xì ga.
+Tủ lạnh bị va đập mạnh: Trong quá trình di chuyển, những va đập mạnh cũng khiến cho tủ lạnh bị xì ga.
 Hở mối nối: Khi các mối hàn không được hàn kín, không chắc chắn sẽ gây ra hiện tượng tủ lạnh hết gas sau một thời gian sử dụng.
 Mọt dàn: Đây là nguyên nhân khó phát hiện bởi khí ga sẽ thoát ra từ từ, một lượng nhỏ qua các lỗ mọt li ti và thường gặp nhất ở những tủ lạnh đã có tuổi đời lâu.
 Thủng dàn: Lỗi này thường do người sử dụng dùng những vật sắc nhọn để cạy đám tuyết đóng băng bên trong tủ lạnh. Điều này có thể gây nên các vết thủng, khí ga sẽ theo đó ra ngoài.</t>
   </si>
   <si>
-    <t>Hầu hết, tủ lạnh mới thường hay xuất hiện mùi nhựa mới nên gây cảm giác khó chịu cho người sử dụng. Thậm chí, nếu bạn xử lý không tốt những mùi nhựa này thì chúng sẽ ám mùi trực tiếp vào thực phẩm khi bảo quản trong tủ lạnh, làm ảnh hưởng đến hương vị vốn có của thực phẩm cũng như sức khỏe của bạn khi ăn phải.</t>
+    <t>Hầu hết, tủ lạnh mới thường hay xuất hiện mùi nhựa mới nên gây cảm giác khó chịu cho người sử dụng.
+Thậm chí, nếu bạn xử lý không tốt những mùi nhựa này thì chúng sẽ ám mùi trực tiếp vào thực phẩm khi bảo quản trong tủ lạnh, làm ảnh hưởng đến hương vị vốn có của thực phẩm cũng như sức khỏe của bạn khi ăn phải.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Để khắc phục tình trạng này, bạn hãy rút tủ ra khoảng 24 tiếng rồi cắm lại.
+Nếu quạt bị hư hỏng, bạn hãy thay quạt mới cho tủ lạnh. 
+Bạn cũng nên vệ sinh tủ lạnh theo định kỳ, 4 - 5 tuần một lần, vừa nâng cao tuổi thọ vừa tránh tình trạng quạt tủ bị kẹt.
+Hoặc hãy tìm đến sự giúp đỡ của người có chuyên môn hoặc mang đến HyuK Refrigeration để kiểm tra
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn hãy chọn lọc lại lượng thực phẩm và bảo quản với số lượng vừa đủ.
+Nếu nguồn điện nơi bạn sống hay bị yếu và chập chờn, bạn hãy trang bị cho tủ một bình điện áp, để đảm bảo nguồn điện luôn ổn định.
+Đặt tủ lạnh ở nơi có vị trí thoáng mát, tránh nơi ẩm ướt, nhiệt độ cao và ánh sáng mặt trời cách phía sau khoảng 10 cm và hai bên tủ khoảng 2 cm với các đồ vật khác.
+Sau khi lấy thực phẩm hay cho thực phẩm vào tủ, bạn hãy kiểm tra thật kỹ xem tủ đã được đóng kín hay chưa.
+Thay ống dẫn gas mới.
+Hoặc hãy nhờ đến sự giúp đỡ của thợ sửa chữa chuyên nghiệp hoặc mang đến HyuK Refrigeration để kiểm tra
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trường hợp cảm biến tủ lạnh bị hỏng cách tốt nhất là bạn nên đến HyuK Refrigeration để kiểm tra cũng như thay mới.
+Việc kiểm tra các linh kiện bên trong tủ lạnh cần được thực hiện bởi các kỹ thuật viên có chuyên môn. Không nên tự ý tháo rời tủ lạnh vì cần phải có dụng cụ chuyên dụng.
+Nên lựa chọn linh kiện chính hãng hoặc cùng loại với linh kiện cũ. Tránh hư hỏng các linh kiện khác
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Việc board mạch trong tủ lạnh bị hư hỏng là một lỗi rất khó và tốn rất nhiều thời gian, đòi hỏi những người thợ kĩ thuật có chuyên môn và tay nghề cao mới có thể sửa chữa và khắc phục tình trạng hư board mạch. Khi tủ lạnh bị hư board mạch việc đầu tiên bạn nên ngắt nguồn điện trong tủ lạnh để tránh gây hỏng các bộ phận liên quan.
+Bạn không nên tự ý tháo lắp hay sửa chữa bo mạch để tránh trình trạng tủ lạnh hư hỏng nặng hơn mà hãy liên hệ cho cơ sở điện lạnh uy tín nhất hoặc liên hệ ngay cho HyuK Refrigeration để kịp thời sửa chữa tủ lạnh
+Trong trường hợp tủ lạnh cần thay board mạch bạn cần lựa chọn board mạch chính hãng để thay thế tránh mua những sản phẩm không có nguồn gốc rõ ràng sẽ làm giảm công suất hoạt động của tủ lạnh và nghiêm trọng hơn có thể làm hư hỏng các bộ phận khác, đồng thời gây mất an toàn cho chính bạn và những người thân trong gia đình.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuy nhiên, để sửa chữa được dàn nóng tủ lạnh, đòi hỏi bạn phải nắm rõ các quy trình cũng như có chuyên môn vững vàng. Nếu không trong quá trình sửa chữa có thể gặp sự cố không mong muốn và làm cả hệ thống của tủ lạnh không hoạt động được.
+Nếu dàn nóng tủ lạnh nhà bạn mà bị hư nhưng không thể sửa chữa được, thì bạn nên nhanh chóng thay dàn nóng tủ lạnh mới.
+o Bạn nên đến ngay trung tâm sửa chữa uy tín để thay dàn nóng cho tủ lạnh, vừa an toàn lại còn đạt được hiệu quả cao. Ngoài ra, để đảm bảo dàn nóng tủ lạnh được hoạt động tốt và ổn định nhất, bạn nên vệ sinh định kì từ 3 - 6 tháng/lần
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +600,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -644,6 +654,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="fill" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,7 +962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -965,7 +981,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>2</v>
@@ -1006,34 +1022,34 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>19</v>
@@ -1044,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I3" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L3" s="12" t="s">
         <v>19</v>
@@ -1082,34 +1098,34 @@
         <v>3</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>19</v>
@@ -1120,34 +1136,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I5" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L5" s="12" t="s">
         <v>19</v>
@@ -1158,34 +1174,34 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I6" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>19</v>
@@ -1196,34 +1212,34 @@
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L7" s="12" t="s">
         <v>19</v>
@@ -1234,34 +1250,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>19</v>
@@ -1272,34 +1288,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I9" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L9" s="12" t="s">
         <v>19</v>
@@ -1310,34 +1326,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>19</v>
@@ -1348,37 +1364,37 @@
         <v>10</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1386,37 +1402,37 @@
         <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1424,37 +1440,37 @@
         <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1462,37 +1478,37 @@
         <v>13</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1500,37 +1516,37 @@
         <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1538,37 +1554,37 @@
         <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1576,37 +1592,37 @@
         <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1614,37 +1630,37 @@
         <v>17</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1652,37 +1668,37 @@
         <v>18</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1690,37 +1706,37 @@
         <v>19</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J20" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1728,37 +1744,37 @@
         <v>20</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F21" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1766,37 +1782,37 @@
         <v>21</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L22" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1804,37 +1820,37 @@
         <v>22</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L23" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1842,37 +1858,37 @@
         <v>23</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1880,37 +1896,37 @@
         <v>24</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L25" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1918,37 +1934,37 @@
         <v>25</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1956,37 +1972,37 @@
         <v>26</v>
       </c>
       <c r="B27" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E27" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L27" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -1994,37 +2010,37 @@
         <v>27</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F28" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2032,37 +2048,37 @@
         <v>28</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2070,37 +2086,37 @@
         <v>29</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E30" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J30" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2108,37 +2124,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J31" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2146,37 +2162,37 @@
         <v>31</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I32" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J32" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L32" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2184,37 +2200,37 @@
         <v>32</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F33" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G33" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I33" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J33" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L33" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2222,37 +2238,37 @@
         <v>33</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F34" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I34" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J34" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L34" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2260,37 +2276,37 @@
         <v>34</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F35" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G35" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I35" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J35" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L35" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2298,37 +2314,37 @@
         <v>35</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G36" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J36" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L36" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2336,37 +2352,37 @@
         <v>36</v>
       </c>
       <c r="B37" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E37" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F37" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J37" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L37" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2374,37 +2390,37 @@
         <v>37</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F38" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J38" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L38" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2412,37 +2428,37 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J39" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L39" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2450,37 +2466,37 @@
         <v>39</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F40" s="12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J40" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L40" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2488,37 +2504,37 @@
         <v>40</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F41" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J41" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L41" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2526,37 +2542,37 @@
         <v>41</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F42" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G42" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J42" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L42" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2564,37 +2580,37 @@
         <v>42</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G43" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J43" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L43" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="18" x14ac:dyDescent="0.35">
@@ -2602,37 +2618,37 @@
         <v>43</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G44" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L44" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2640,37 +2656,37 @@
         <v>44</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G45" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I45" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L45" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2678,37 +2694,37 @@
         <v>45</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="H46" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>61</v>
-      </c>
       <c r="I46" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L46" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2716,37 +2732,37 @@
         <v>46</v>
       </c>
       <c r="B47" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="I47" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L47" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2754,37 +2770,37 @@
         <v>47</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L48" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2792,37 +2808,37 @@
         <v>48</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J49" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L49" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2830,37 +2846,37 @@
         <v>49</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C50" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>80</v>
-      </c>
       <c r="I50" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J50" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L50" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2868,37 +2884,37 @@
         <v>50</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J51" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L51" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2906,37 +2922,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L52" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2944,37 +2960,37 @@
         <v>52</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L53" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -2982,37 +2998,37 @@
         <v>53</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L54" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3020,37 +3036,37 @@
         <v>54</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G55" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="I55" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L55" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3058,37 +3074,37 @@
         <v>55</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L56" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3096,37 +3112,37 @@
         <v>56</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I57" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L57" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3134,37 +3150,37 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L58" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3172,37 +3188,37 @@
         <v>58</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G59" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L59" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3210,37 +3226,37 @@
         <v>59</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G60" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J60" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L60" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3248,37 +3264,37 @@
         <v>60</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G61" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J61" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L61" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3286,37 +3302,37 @@
         <v>61</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G62" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L62" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3324,37 +3340,37 @@
         <v>62</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L63" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3362,37 +3378,37 @@
         <v>63</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C64" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I64" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J64" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L64" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3400,37 +3416,37 @@
         <v>64</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G65" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L65" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3438,37 +3454,37 @@
         <v>65</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C66" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I66" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J66" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L66" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3476,37 +3492,37 @@
         <v>66</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C67" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F67" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G67" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I67" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L67" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3514,37 +3530,37 @@
         <v>67</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C68" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F68" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G68" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I68" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J68" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L68" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3552,37 +3568,37 @@
         <v>68</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C69" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D69" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G69" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I69" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J69" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L69" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3590,37 +3606,37 @@
         <v>69</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F70" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G70" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I70" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J70" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L70" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3628,37 +3644,37 @@
         <v>70</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J71" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L71" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3666,37 +3682,37 @@
         <v>71</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C72" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G72" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L72" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3704,37 +3720,37 @@
         <v>72</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I73" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L73" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3742,37 +3758,37 @@
         <v>73</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C74" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D74" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G74" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I74" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J74" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L74" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3780,37 +3796,37 @@
         <v>74</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L75" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3818,37 +3834,37 @@
         <v>75</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J76" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L76" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3856,37 +3872,37 @@
         <v>76</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L77" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3894,37 +3910,37 @@
         <v>77</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G78" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J78" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L78" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3932,37 +3948,37 @@
         <v>78</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G79" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I79" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L79" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -3970,37 +3986,37 @@
         <v>79</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D80" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F80" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G80" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L80" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4008,37 +4024,37 @@
         <v>80</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G81" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L81" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4046,37 +4062,37 @@
         <v>81</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L82" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4084,37 +4100,37 @@
         <v>82</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L83" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4122,37 +4138,37 @@
         <v>83</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L84" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4160,37 +4176,37 @@
         <v>84</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L85" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4198,37 +4214,37 @@
         <v>85</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L86" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4236,37 +4252,37 @@
         <v>86</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D87" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L87" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4274,37 +4290,37 @@
         <v>87</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D88" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L88" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4312,37 +4328,37 @@
         <v>88</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D89" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L89" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4350,37 +4366,37 @@
         <v>89</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D90" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L90" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4388,37 +4404,37 @@
         <v>90</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D91" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L91" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4426,37 +4442,37 @@
         <v>91</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D92" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L92" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4464,37 +4480,37 @@
         <v>92</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D93" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L93" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4502,37 +4518,37 @@
         <v>93</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D94" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L94" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4540,37 +4556,37 @@
         <v>94</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D95" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L95" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4578,37 +4594,37 @@
         <v>95</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D96" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L96" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4616,37 +4632,37 @@
         <v>96</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D97" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L97" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4654,37 +4670,37 @@
         <v>97</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G98" s="12" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J98" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L98" s="17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4692,37 +4708,37 @@
         <v>98</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C99" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G99" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L99" s="17" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4730,37 +4746,37 @@
         <v>99</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G100" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L100" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4768,37 +4784,37 @@
         <v>100</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D101" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G101" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J101" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L101" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4806,37 +4822,37 @@
         <v>101</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C102" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D102" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G102" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L102" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4844,37 +4860,37 @@
         <v>102</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D103" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J103" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L103" s="17" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4882,37 +4898,37 @@
         <v>103</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C104" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D104" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G104" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J104" s="12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L104" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4920,37 +4936,37 @@
         <v>104</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D105" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G105" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="L105" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4958,37 +4974,37 @@
         <v>105</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D106" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="L106" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4996,37 +5012,37 @@
         <v>106</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C107" s="12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G107" s="12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J107" s="12" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L107" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5034,34 +5050,34 @@
         <v>107</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H108" s="13" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K108" s="13" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L108" s="19" t="s">
         <v>16</v>
@@ -5074,14 +5090,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5110,7 +5126,8 @@
       <c r="B2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5121,165 +5138,165 @@
       <c r="B3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>21</v>
+      <c r="C3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
+      <c r="C4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>28</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5288,7 +5305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
